--- a/companyBack.xlsx
+++ b/companyBack.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02B74B1-A225-4569-B403-33658BF85B33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3576CB-BE8C-4A90-9483-7933C5F48248}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所在城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中石化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +67,10 @@
   </si>
   <si>
     <t>海南市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回访城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,9 +131,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,111 +423,110 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="21.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/companyBack.xlsx
+++ b/companyBack.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3576CB-BE8C-4A90-9483-7933C5F48248}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF15E2C-07D2-4A82-996B-CDF0C3246346}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,11 +66,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海南市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回访城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海口市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -462,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
